--- a/Segumiento_alfa.xlsx
+++ b/Segumiento_alfa.xlsx
@@ -2988,7 +2988,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="24">
         <f ca="1">IF(ISBLANK(L14), NETWORKDAYS(J14, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J14, L14, [1]Hoja2!$A$1:$A$18))</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N14" s="40"/>
       <c r="O14" s="48"/>
@@ -3027,7 +3027,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="24">
         <f ca="1">IF(ISBLANK(L15), NETWORKDAYS(J15, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J15, L15, [1]Hoja2!$A$1:$A$18))</f>
-        <v>32784</v>
+        <v>32785</v>
       </c>
       <c r="N15" s="40"/>
       <c r="O15" s="48"/>
@@ -3401,7 +3401,7 @@
       <c r="L23" s="45"/>
       <c r="M23" s="51">
         <f ca="1">IF(ISBLANK(L23), NETWORKDAYS(J23, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J23, L23, [1]Hoja2!$A$1:$A$18))</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23" s="40"/>
       <c r="O23" s="48"/>
@@ -3822,7 +3822,7 @@
       <c r="L32" s="45"/>
       <c r="M32" s="51">
         <f ca="1">IF(ISBLANK(L32), NETWORKDAYS(J32, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J32, L32, [1]Hoja2!$A$1:$A$18))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32" s="40"/>
       <c r="O32" s="48"/>
@@ -3865,7 +3865,7 @@
       <c r="L33" s="45"/>
       <c r="M33" s="51">
         <f ca="1">IF(ISBLANK(L33), NETWORKDAYS(J33, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J33, L33, [1]Hoja2!$A$1:$A$18))</f>
-        <v>32784</v>
+        <v>32785</v>
       </c>
       <c r="N33" s="40"/>
       <c r="O33" s="48"/>
@@ -3908,7 +3908,7 @@
       <c r="L34" s="45"/>
       <c r="M34" s="51">
         <f ca="1">IF(ISBLANK(L34), NETWORKDAYS(J34, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J34, L34, [1]Hoja2!$A$1:$A$18))</f>
-        <v>32784</v>
+        <v>32785</v>
       </c>
       <c r="N34" s="40"/>
       <c r="O34" s="48"/>
@@ -3951,7 +3951,7 @@
       <c r="L35" s="45"/>
       <c r="M35" s="51">
         <f ca="1">IF(ISBLANK(L35), NETWORKDAYS(J35, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J35, L35, [1]Hoja2!$A$1:$A$18))</f>
-        <v>32784</v>
+        <v>32785</v>
       </c>
       <c r="N35" s="40"/>
       <c r="O35" s="48"/>
@@ -4041,7 +4041,7 @@
       <c r="L37" s="45"/>
       <c r="M37" s="51">
         <f ca="1">IF(ISBLANK(L37), NETWORKDAYS(J37, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J37, L37, [1]Hoja2!$A$1:$A$18))</f>
-        <v>32784</v>
+        <v>32785</v>
       </c>
       <c r="N37" s="40"/>
       <c r="O37" s="48"/>
@@ -4084,7 +4084,7 @@
       <c r="L38" s="45"/>
       <c r="M38" s="51">
         <f ca="1">IF(ISBLANK(L38), NETWORKDAYS(J38, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L38, [1]Hoja2!$A$1:$A$18))</f>
-        <v>32784</v>
+        <v>32785</v>
       </c>
       <c r="N38" s="40"/>
       <c r="O38" s="48"/>
@@ -4131,7 +4131,7 @@
       <c r="L39" s="67"/>
       <c r="M39" s="68">
         <f ca="1">IF(ISBLANK(L39), NETWORKDAYS(J39, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J39, L39, [1]Hoja2!$A$1:$A$18))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39" s="69"/>
       <c r="O39" s="70"/>
@@ -4180,7 +4180,7 @@
       <c r="L40" s="45"/>
       <c r="M40" s="51">
         <f ca="1">IF(ISBLANK(L40), NETWORKDAYS(J40, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J40, L40, [1]Hoja2!$A$1:$A$18))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N40" s="40"/>
       <c r="O40" s="48"/>
@@ -4323,7 +4323,7 @@
       <c r="L43" s="67"/>
       <c r="M43" s="68">
         <f ca="1">IF(ISBLANK(L43), NETWORKDAYS(J43, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J43, L43, [1]Hoja2!$A$1:$A$18))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N43" s="69"/>
       <c r="O43" s="70"/>
@@ -5130,7 +5130,7 @@
       <c r="L60" s="73"/>
       <c r="M60" s="87">
         <f ca="1">IF(ISBLANK(L60), NETWORKDAYS(J60, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J60, L60, [1]Hoja2!$A$1:$A$18))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N60" s="88"/>
       <c r="O60" s="89"/>
@@ -5177,7 +5177,7 @@
       <c r="L61" s="73"/>
       <c r="M61" s="87">
         <f ca="1">IF(ISBLANK(L61), NETWORKDAYS(J61, TODAY(),[1]Hoja2!$A$1:$A$18), NETWORKDAYS(J61, L61, [1]Hoja2!$A$1:$A$18))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61" s="88"/>
       <c r="O61" s="89"/>
